--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Salvin's Albatross_The Snares.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Salvin's Albatross_The Snares.xlsx
@@ -2934,13 +2934,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF5BF528-7FFC-4635-AE42-93756932381F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E9A237-C41B-4FB3-91E6-862B7B5582F6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1CD66BD-0C71-44DE-87A5-DF524A992F18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD1CC9C-F288-4075-8633-5E41FD379533}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24B7DB1D-DEF5-4D7D-B5F8-E333BC35007F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F7CE15-F3AC-4CE5-86DF-0EAAEBEFDA30}"/>
 </file>